--- a/data/Subset1_WithDialogActs/Math CZ4 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math CZ4 transcript.xlsx_with_dialog_acts.xlsx
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3547,12 +3547,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5989,12 +5989,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6669,12 +6669,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7345,12 +7345,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7605,12 +7605,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7731,12 +7731,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9255,12 +9255,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9717,12 +9717,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10053,12 +10053,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10179,12 +10179,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10939,12 +10939,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11107,12 +11107,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11233,12 +11233,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11275,12 +11275,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11359,12 +11359,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11569,12 +11569,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11821,12 +11821,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11993,12 +11993,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12077,12 +12077,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12497,12 +12497,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13043,12 +13043,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13127,12 +13127,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13211,12 +13211,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13295,12 +13295,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13379,12 +13379,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13421,12 +13421,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13673,12 +13673,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14723,12 +14723,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15441,12 +15441,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15525,12 +15525,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15567,12 +15567,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15869,12 +15869,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15953,12 +15953,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16251,12 +16251,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16335,12 +16335,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16671,12 +16671,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17217,12 +17217,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17473,12 +17473,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18023,12 +18023,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18275,12 +18275,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18317,12 +18317,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18443,12 +18443,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18657,12 +18657,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19127,12 +19127,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19211,12 +19211,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19253,12 +19253,12 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19295,12 +19295,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19379,12 +19379,12 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19463,12 +19463,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20139,12 +20139,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20433,12 +20433,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21105,12 +21105,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21567,12 +21567,12 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21693,12 +21693,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22323,12 +22323,12 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22365,12 +22365,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23213,12 +23213,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23255,12 +23255,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23845,12 +23845,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24181,12 +24181,12 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24391,12 +24391,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
